--- a/manual_computation.xlsx
+++ b/manual_computation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tasta\Documents\Orienteering\orienteering_split_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1803229\Documents\orienteering_split_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F4C69E-31F5-4F4C-8E3F-67E4800C7C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA46360-2697-4DA8-89BD-26DE8DD8044D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{50BE120E-673D-47AC-8167-FF8EF7B95D0E}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="14400" windowHeight="8260" xr2:uid="{50BE120E-673D-47AC-8167-FF8EF7B95D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,9 +42,6 @@
     <t>Thomas Laraia_split</t>
   </si>
   <si>
-    <t>Finish</t>
-  </si>
-  <si>
     <t>superman_split</t>
   </si>
   <si>
@@ -55,12 +50,15 @@
   <si>
     <t>superman_total</t>
   </si>
+  <si>
+    <t>F</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,9 +87,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -427,20 +424,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0696F6-2836-4936-A443-034BC508A97C}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.9140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,257 +483,381 @@
       <c r="O1">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>2</v>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
+        <f>10*60+25</f>
+        <v>625</v>
+      </c>
+      <c r="C2" s="1">
+        <f>60+23</f>
+        <v>83</v>
+      </c>
+      <c r="D2" s="1">
+        <f>60+49</f>
+        <v>109</v>
+      </c>
+      <c r="E2" s="1">
+        <f>180+38</f>
+        <v>218</v>
+      </c>
+      <c r="F2" s="1">
+        <f>120+21</f>
+        <v>141</v>
+      </c>
+      <c r="G2" s="1">
         <f>120+22</f>
         <v>142</v>
       </c>
-      <c r="C2" s="2">
-        <f>60+23</f>
-        <v>83</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="H2" s="1">
+        <f>7*60+17</f>
+        <v>437</v>
+      </c>
+      <c r="I2" s="1">
         <f>60+42</f>
         <v>102</v>
       </c>
-      <c r="E2" s="2">
-        <f>180+12</f>
-        <v>192</v>
-      </c>
-      <c r="F2" s="2">
-        <f>120+35</f>
-        <v>155</v>
-      </c>
-      <c r="G2" s="2">
-        <f>65</f>
-        <v>65</v>
-      </c>
-      <c r="H2" s="2">
-        <f>90</f>
-        <v>90</v>
-      </c>
-      <c r="I2" s="2">
-        <f>240-5</f>
-        <v>235</v>
-      </c>
-      <c r="J2" s="2">
-        <f>180+23</f>
-        <v>203</v>
-      </c>
-      <c r="K2" s="2">
-        <f>120+37</f>
-        <v>157</v>
-      </c>
-      <c r="L2" s="2">
-        <f>240+34</f>
+      <c r="J2" s="1">
+        <f>240+27</f>
+        <v>267</v>
+      </c>
+      <c r="K2" s="1">
+        <f>62</f>
+        <v>62</v>
+      </c>
+      <c r="L2" s="1">
+        <f>121</f>
+        <v>121</v>
+      </c>
+      <c r="M2" s="1">
+        <f>60+55</f>
+        <v>115</v>
+      </c>
+      <c r="N2" s="1">
+        <f>120+34</f>
+        <v>154</v>
+      </c>
+      <c r="O2" s="1">
+        <f>120+34</f>
+        <v>154</v>
+      </c>
+      <c r="P2" s="1">
+        <f>5*60</f>
+        <v>300</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>45</v>
+      </c>
+      <c r="R2" s="1">
+        <f>3*60+52</f>
+        <v>232</v>
+      </c>
+      <c r="S2">
+        <f>4*60+34</f>
         <v>274</v>
       </c>
-      <c r="M2" s="2">
-        <f>180</f>
-        <v>180</v>
-      </c>
-      <c r="N2" s="2">
-        <f>86</f>
-        <v>86</v>
-      </c>
-      <c r="O2" s="2">
-        <f>120+48</f>
-        <v>168</v>
-      </c>
-      <c r="P2" s="2">
-        <f>51</f>
-        <v>51</v>
-      </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="T2">
+        <f>60+35</f>
+        <v>95</v>
+      </c>
+      <c r="U2">
+        <f>68</f>
+        <v>68</v>
+      </c>
+      <c r="V2">
+        <f>27</f>
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <f>B2</f>
+        <v>625</v>
+      </c>
+      <c r="C3" s="1">
+        <f>B3+C2</f>
+        <v>708</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:P3" si="0">C3+D2</f>
+        <v>817</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" si="0"/>
+        <v>1035</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="0"/>
+        <v>1176</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>1318</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" si="0"/>
+        <v>1755</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" si="0"/>
+        <v>1857</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" si="0"/>
+        <v>2124</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" si="0"/>
+        <v>2186</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" si="0"/>
+        <v>2307</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" si="0"/>
+        <v>2422</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" si="0"/>
+        <v>2576</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" si="0"/>
+        <v>2730</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" si="0"/>
+        <v>3030</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3" si="1">P3+Q2</f>
+        <v>3075</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3" si="2">Q3+R2</f>
+        <v>3307</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3" si="3">R3+S2</f>
+        <v>3581</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" ref="T3" si="4">S3+T2</f>
+        <v>3676</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" ref="U3:V3" si="5">T3+U2</f>
+        <v>3744</v>
+      </c>
+      <c r="V3" s="1">
+        <f t="shared" si="5"/>
+        <v>3771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f>9*60+27</f>
+        <v>567</v>
+      </c>
+      <c r="C4">
+        <f>60+14</f>
+        <v>74</v>
+      </c>
+      <c r="D4">
+        <f>60+37-6</f>
+        <v>91</v>
+      </c>
+      <c r="E4">
+        <f>3*60+13</f>
+        <v>193</v>
+      </c>
+      <c r="F4">
+        <f>60+51-12</f>
+        <v>99</v>
+      </c>
+      <c r="G4">
+        <f>120+5-8</f>
+        <v>117</v>
+      </c>
+      <c r="H4">
+        <f>5*60+44-18</f>
+        <v>326</v>
+      </c>
+      <c r="I4">
+        <f>60+25-11</f>
+        <v>74</v>
+      </c>
+      <c r="J4">
+        <f>3*60+58-60-34</f>
+        <v>144</v>
+      </c>
+      <c r="K4">
+        <f>53</f>
+        <v>53</v>
+      </c>
+      <c r="L4">
+        <f>60+40</f>
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <f>60+49-8</f>
+        <v>101</v>
+      </c>
+      <c r="N4">
+        <f>60+23-10</f>
+        <v>73</v>
+      </c>
+      <c r="O4">
+        <f>60+45-5</f>
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <f>4*60+22</f>
+        <v>262</v>
+      </c>
+      <c r="Q4">
+        <f>57</f>
+        <v>57</v>
+      </c>
+      <c r="R4">
+        <f>3*60+27-1</f>
+        <v>206</v>
+      </c>
+      <c r="S4">
+        <f>4*60+8-9</f>
+        <v>239</v>
+      </c>
+      <c r="T4">
+        <f>60+14-14</f>
+        <v>60</v>
+      </c>
+      <c r="U4">
+        <f>60+7-9</f>
+        <v>58</v>
+      </c>
+      <c r="V4">
+        <f>24-7</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="2">
-        <f>B2</f>
-        <v>142</v>
-      </c>
-      <c r="C3" s="2">
-        <f>B3+C2</f>
-        <v>225</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:P3" si="0">C3+D2</f>
-        <v>327</v>
-      </c>
-      <c r="E3" s="2">
-        <f t="shared" si="0"/>
-        <v>519</v>
-      </c>
-      <c r="F3" s="2">
-        <f t="shared" si="0"/>
-        <v>674</v>
-      </c>
-      <c r="G3" s="2">
-        <f t="shared" si="0"/>
-        <v>739</v>
-      </c>
-      <c r="H3" s="2">
-        <f t="shared" si="0"/>
-        <v>829</v>
-      </c>
-      <c r="I3" s="2">
-        <f t="shared" si="0"/>
-        <v>1064</v>
-      </c>
-      <c r="J3" s="2">
-        <f t="shared" si="0"/>
-        <v>1267</v>
-      </c>
-      <c r="K3" s="2">
-        <f t="shared" si="0"/>
-        <v>1424</v>
-      </c>
-      <c r="L3" s="2">
-        <f t="shared" si="0"/>
-        <v>1698</v>
-      </c>
-      <c r="M3" s="2">
-        <f t="shared" si="0"/>
-        <v>1878</v>
-      </c>
-      <c r="N3" s="2">
-        <f t="shared" si="0"/>
-        <v>1964</v>
-      </c>
-      <c r="O3" s="2">
-        <f t="shared" si="0"/>
-        <v>2132</v>
-      </c>
-      <c r="P3" s="2">
-        <f t="shared" si="0"/>
-        <v>2183</v>
-      </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>110</v>
-      </c>
-      <c r="C4">
-        <v>30</v>
-      </c>
-      <c r="D4">
-        <v>71</v>
-      </c>
-      <c r="E4">
-        <v>48</v>
-      </c>
-      <c r="F4">
-        <v>151</v>
-      </c>
-      <c r="G4">
-        <v>56</v>
-      </c>
-      <c r="H4">
-        <v>80</v>
-      </c>
-      <c r="I4">
-        <v>242</v>
-      </c>
-      <c r="J4">
-        <v>183</v>
-      </c>
-      <c r="K4">
-        <v>128</v>
-      </c>
-      <c r="L4">
-        <v>234</v>
-      </c>
-      <c r="M4">
-        <v>127</v>
-      </c>
-      <c r="N4">
-        <v>77</v>
-      </c>
-      <c r="O4">
-        <v>149</v>
-      </c>
-      <c r="P4">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
       </c>
       <c r="B5">
         <f>B4</f>
-        <v>110</v>
+        <v>567</v>
       </c>
       <c r="C5">
         <f>C4+B5</f>
-        <v>140</v>
+        <v>641</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:O5" si="1">D4+C5</f>
-        <v>211</v>
+        <f t="shared" ref="D5:O5" si="6">D4+C5</f>
+        <v>732</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
-        <v>259</v>
+        <f t="shared" si="6"/>
+        <v>925</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
-        <v>410</v>
+        <f t="shared" si="6"/>
+        <v>1024</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
-        <v>466</v>
+        <f t="shared" si="6"/>
+        <v>1141</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
-        <v>546</v>
+        <f t="shared" si="6"/>
+        <v>1467</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
-        <v>788</v>
+        <f t="shared" si="6"/>
+        <v>1541</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
-        <v>971</v>
+        <f t="shared" si="6"/>
+        <v>1685</v>
       </c>
       <c r="K5">
-        <f t="shared" si="1"/>
-        <v>1099</v>
+        <f t="shared" si="6"/>
+        <v>1738</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
-        <v>1333</v>
+        <f t="shared" si="6"/>
+        <v>1838</v>
       </c>
       <c r="M5">
-        <f t="shared" si="1"/>
-        <v>1460</v>
+        <f t="shared" si="6"/>
+        <v>1939</v>
       </c>
       <c r="N5">
-        <f t="shared" si="1"/>
-        <v>1537</v>
+        <f t="shared" si="6"/>
+        <v>2012</v>
       </c>
       <c r="O5">
-        <f t="shared" si="1"/>
-        <v>1686</v>
+        <f t="shared" si="6"/>
+        <v>2112</v>
       </c>
       <c r="P5">
         <f>P4+O5</f>
-        <v>1732</v>
+        <v>2374</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ref="Q5:V5" si="7">Q4+P5</f>
+        <v>2431</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="7"/>
+        <v>2637</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="7"/>
+        <v>2876</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="7"/>
+        <v>2936</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="7"/>
+        <v>2994</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="7"/>
+        <v>3011</v>
       </c>
     </row>
   </sheetData>
